--- a/src/test/java/day09_excell_screenshot_jsExecutor/ulkeler.xlsx
+++ b/src/test/java/day09_excell_screenshot_jsExecutor/ulkeler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,9 +1740,6 @@
   </si>
   <si>
     <t>Zimbabve</t>
-  </si>
-  <si>
-    <t>Nufus</t>
   </si>
 </sst>
 </file>
@@ -2169,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="G190" sqref="G190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2180,7 +2177,7 @@
     <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2193,11 +2190,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2210,11 +2204,8 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2228,7 +2219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2242,7 +2233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2256,7 +2247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2298,7 +2289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2312,7 +2303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2325,11 +2316,8 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2343,7 +2331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2357,7 +2345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2371,7 +2359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2385,7 +2373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2398,11 +2386,8 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4874,14 +4859,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
